--- a/樊配茹/项目进度控制表-樊配茹 .xlsx
+++ b/樊配茹/项目进度控制表-樊配茹 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\hgkj_02\樊配茹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-depository\hgkj_02\樊配茹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE49443-C4AC-44D9-9CE4-EC29E405BECE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416CBD4-7288-472C-93D8-E511F86828BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="59">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -189,13 +189,33 @@
   </si>
   <si>
     <t>校验未做，30天内自动登录未做</t>
+  </si>
+  <si>
+    <t>30天内自动登录未做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接退出</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传有问题</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>假分页</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验有问题</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +235,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -222,12 +243,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,6 +258,7 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -242,30 +266,35 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -273,34 +302,40 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -434,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +603,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,26 +660,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -936,26 +974,26 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -978,25 +1016,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" s="44" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1010,14 +1048,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1027,8 +1065,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1048,12 +1086,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1061,25 +1099,25 @@
       <c r="F7" s="20"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="20"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1087,36 +1125,36 @@
       <c r="F9" s="20"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="20"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1124,58 +1162,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="20"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="20"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1183,25 +1221,25 @@
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1209,23 +1247,23 @@
       <c r="F19" s="20"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1233,25 +1271,25 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1259,36 +1297,36 @@
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1296,34 +1334,34 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1331,23 +1369,23 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1355,6 +1393,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1369,12 +1413,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1390,29 +1428,29 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="81.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1435,25 +1473,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -1467,14 +1505,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -1484,8 +1522,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1503,12 +1541,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -1516,25 +1554,25 @@
       <c r="F7" s="20"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="20"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -1542,36 +1580,36 @@
       <c r="F9" s="20"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="20"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -1579,58 +1617,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="20"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="20"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -1638,25 +1676,25 @@
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -1664,23 +1702,23 @@
       <c r="F19" s="20"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -1688,25 +1726,25 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -1714,36 +1752,36 @@
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -1751,34 +1789,34 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -1786,23 +1824,23 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1810,6 +1848,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -1824,12 +1868,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,22 +1879,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="87.6328125" customWidth="1"/>
+    <col min="7" max="7" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1905,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1939,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +1977,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1998,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
@@ -1979,7 +2017,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="21"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -1994,7 +2032,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
@@ -2013,7 +2051,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="23"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -2028,7 +2066,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="25"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
@@ -2039,7 +2077,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="22" t="s">
         <v>23</v>
       </c>
@@ -2060,7 +2098,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="23"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -2071,7 +2109,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="23"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
@@ -2082,7 +2120,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
@@ -2093,7 +2131,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
@@ -2104,7 +2142,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
@@ -2119,7 +2157,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="25"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
@@ -2130,7 +2168,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
@@ -2145,7 +2183,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="23"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
@@ -2156,7 +2194,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="23"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
@@ -2169,7 +2207,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="25"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
@@ -2180,7 +2218,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="33">
       <c r="A23" s="22" t="s">
         <v>38</v>
       </c>
@@ -2195,7 +2233,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="23"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
@@ -2206,7 +2244,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="25"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
@@ -2217,7 +2255,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="22" t="s">
         <v>43</v>
       </c>
@@ -2232,7 +2270,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="23"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -2243,7 +2281,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="23"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
@@ -2254,7 +2292,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="23"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
@@ -2267,7 +2305,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="25"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
@@ -2278,7 +2316,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
@@ -2304,30 +2342,30 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="47.36328125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="47.375" style="32" customWidth="1"/>
     <col min="8" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2350,25 +2388,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="35"/>
@@ -2380,14 +2418,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13">
@@ -2395,7 +2433,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -2412,12 +2450,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2427,12 +2465,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
@@ -2440,14 +2478,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2457,12 +2495,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="38"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
@@ -2470,12 +2508,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="40"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13">
@@ -2483,14 +2521,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2498,58 +2536,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="41"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="20"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="42"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="20"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -2557,25 +2595,25 @@
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="42"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -2583,23 +2621,23 @@
       <c r="F19" s="20"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="42"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="42"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -2607,25 +2645,25 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="41"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -2633,36 +2671,36 @@
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="40"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="40"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="25.5">
       <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -2670,34 +2708,34 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="42"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="42"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -2705,23 +2743,23 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="43"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="35"/>
       <c r="B31" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -2729,12 +2767,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
@@ -2742,6 +2774,12 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2756,29 +2794,29 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="90.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2801,25 +2839,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -2833,14 +2871,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -2850,8 +2888,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2869,12 +2907,12 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -2886,12 +2924,12 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12">
         <v>43641</v>
@@ -2901,14 +2939,14 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -2920,12 +2958,12 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12">
         <v>43641</v>
@@ -2935,12 +2973,12 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12">
         <v>43641</v>
@@ -2950,14 +2988,14 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -2965,58 +3003,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="20"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="20"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3024,25 +3062,25 @@
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3050,23 +3088,23 @@
       <c r="F19" s="20"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3074,25 +3112,25 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3100,36 +3138,36 @@
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3137,34 +3175,34 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3172,23 +3210,23 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3196,6 +3234,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3210,12 +3254,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3226,33 +3264,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3275,55 +3313,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="23.1" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="64">
+        <v>43642</v>
+      </c>
       <c r="E4" s="12">
         <v>43640</v>
       </c>
       <c r="F4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
       </c>
       <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3337,79 +3379,105 @@
         <v>43640</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+      <c r="E7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+      <c r="E10" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.2</v>
+      </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3417,88 +3485,92 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="20"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="20"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="24" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+      <c r="F17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3506,23 +3578,23 @@
       <c r="F19" s="20"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3530,25 +3602,25 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -3556,36 +3628,36 @@
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -3593,34 +3665,34 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -3628,23 +3700,23 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3652,6 +3724,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -3666,12 +3744,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3682,33 +3754,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3731,25 +3803,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>43638</v>
       </c>
       <c r="D4" s="11"/>
@@ -3763,14 +3835,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>43640</v>
@@ -3780,8 +3852,8 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3801,12 +3873,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="62"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>43640</v>
       </c>
       <c r="D7" s="12"/>
@@ -3814,25 +3886,25 @@
       <c r="F7" s="20"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="63"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="20"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="48">
         <v>43641</v>
       </c>
       <c r="D9" s="12"/>
@@ -3840,36 +3912,36 @@
       <c r="F9" s="20"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="20"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="46"/>
       <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>43642</v>
       </c>
       <c r="D12" s="12"/>
@@ -3877,58 +3949,58 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="20"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="20"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+    <row r="16" spans="1:7" ht="21" customHeight="1">
+      <c r="A16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>43643</v>
       </c>
       <c r="D17" s="12"/>
@@ -3936,12 +4008,12 @@
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
@@ -3951,14 +4023,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="12"/>
@@ -3966,23 +4038,23 @@
       <c r="F19" s="20"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="47"/>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="47"/>
       <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>43646</v>
       </c>
       <c r="D21" s="12"/>
@@ -3990,25 +4062,25 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="12"/>
@@ -4016,36 +4088,36 @@
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="47"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="57" t="s">
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="A26" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>43650</v>
       </c>
       <c r="D26" s="12"/>
@@ -4053,34 +4125,34 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="47"/>
       <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="A29" s="47"/>
       <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>43651</v>
       </c>
       <c r="D29" s="12"/>
@@ -4088,23 +4160,23 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="20"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4112,6 +4184,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
@@ -4126,14 +4204,9 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>